--- a/Mifos Automation Excels/Client/2625-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-DISBURSE-FEE-%INT-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2625-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-DISBURSE-FEE-%INT-Newcreateloan1.xlsx
@@ -215,7 +215,7 @@
     <t>Repayment (at time of disbursement)</t>
   </si>
   <si>
-    <t>2595-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-DISBURSE-FEE-%INT</t>
+    <t>2625-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-DISB-FEE-%INT-1st</t>
   </si>
 </sst>
 </file>

--- a/Mifos Automation Excels/Client/2625-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-DISBURSE-FEE-%INT-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2625-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-DISBURSE-FEE-%INT-Newcreateloan1.xlsx
@@ -215,7 +215,7 @@
     <t>Repayment (at time of disbursement)</t>
   </si>
   <si>
-    <t>2625-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-DISB-FEE-%INT-1st</t>
+    <t>2595-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-DISBURSE-FEE-%INT</t>
   </si>
 </sst>
 </file>
